--- a/storage/import-templates/subprojects-template.xlsx
+++ b/storage/import-templates/subprojects-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\OneDrive\Desktop\import-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA9CAC0-DA37-4035-AE50-5361222B627F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF22CE5-412F-4561-84D7-1FB2ACDF7A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>project_id</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>sub_project_form_of_development</t>
+  </si>
+  <si>
+    <t>sub_project_implementing_agency</t>
+  </si>
+  <si>
+    <t>sub_project_research_center</t>
+  </si>
+  <si>
+    <t>keywords</t>
   </si>
 </sst>
 </file>
@@ -116,12 +125,18 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,13 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,90 +440,100 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
